--- a/biology/Biologie cellulaire et moléculaire/Chromatine/Chromatine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Chromatine/Chromatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chromatine est la structure au sein de laquelle l'ADN se trouve empaqueté et compacté dans le volume limité du noyau des cellules eucaryotes. La chromatine est constituée d'une association d'ADN, d'ARN et de protéines de deux types : histones et non-histones. C'est le constituant principal des chromosomes eucaryotes.
 En microscopie, on distingue deux types de chromatine correspondant à des niveaux différents de compaction :
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chromatine a été découverte vers 1880 par Walther Flemming, qui lui attribua ce nom en raison de son affinité pour les colorants[1]. Les histones sont découvertes peu après, en 1884 par Albrecht Kossel. Peu de progrès sont ensuite réalisés sur la structure de la chromatine jusque dans les années 1970 et les premières observations de fibres chromatiniennes en microscopie électronique, révélant l’existence du nucléosome, l’unité de base de la chromatine, dont la structure détaillée sera finalement résolue par cristallographie aux rayons X en 1997[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chromatine a été découverte vers 1880 par Walther Flemming, qui lui attribua ce nom en raison de son affinité pour les colorants. Les histones sont découvertes peu après, en 1884 par Albrecht Kossel. Peu de progrès sont ensuite réalisés sur la structure de la chromatine jusque dans les années 1970 et les premières observations de fibres chromatiniennes en microscopie électronique, révélant l’existence du nucléosome, l’unité de base de la chromatine, dont la structure détaillée sera finalement résolue par cristallographie aux rayons X en 1997.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Fibre chromatinienne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élément de base de la chromatine est le nucléosome. Les nucléosomes sont constitués d'un segment de 146 paires de bases d'ADN enroulé autour d'un disque protéique octamère, un assemblage de 8 molécules d'histones H2A, H2B, H3 et H4. Les nucléosomes s'enchaînent sur l'ADN pour constituer une structure en collier de perles (structure rarissime dans la cellule, les nucléosomes sont en fait empilés les uns sur les autres). Avec l'addition d'histones H1, le filament nucléosomique, appelé aussi la fibre de 10 nm est à son tour compacté sous forme de fibres de 30 nm de diamètre[n 1],[3], constituant l'unité de base de la chromatine. Cette fibre elle-même peut être plus ou moins condensée (sur-enroulée). Au niveau ultrastructurel, en microscopie électronique, on distingue l'euchromatine, peu dense, qui contient les gènes actifs et l'hétérochromatine, dense.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élément de base de la chromatine est le nucléosome. Les nucléosomes sont constitués d'un segment de 146 paires de bases d'ADN enroulé autour d'un disque protéique octamère, un assemblage de 8 molécules d'histones H2A, H2B, H3 et H4. Les nucléosomes s'enchaînent sur l'ADN pour constituer une structure en collier de perles (structure rarissime dans la cellule, les nucléosomes sont en fait empilés les uns sur les autres). Avec l'addition d'histones H1, le filament nucléosomique, appelé aussi la fibre de 10 nm est à son tour compacté sous forme de fibres de 30 nm de diamètre[n 1] constituant l'unité de base de la chromatine. Cette fibre elle-même peut être plus ou moins condensée (sur-enroulée). Au niveau ultrastructurel, en microscopie électronique, on distingue l'euchromatine, peu dense, qui contient les gènes actifs et l'hétérochromatine, dense.
 En début de mitose, la chromatine se condense sous forme de chromosomes.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Types de chromatine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux types de chromatine peuvent être distingués :
 l'euchromatine, qui consiste en ADN actif, de structure globalement décondensée permettant l'expression génique ;
@@ -613,7 +631,9 @@
           <t>Influence de la structure chromatinienne sur l'expression génique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contrôle de la structure chromatinienne est aussi un mode de contrôle de l'expression génique. En effet, l'ADN pour être exprimé doit être décompacté, un complexe de remodelage intervient donc pour désorganiser les histones afin de permettre la fixation de facteurs trans sur l'ADN et son expression.
 Aussi les histones, comme l'ADN, sont soumises à des modifications chimiques régulant l'expression génique. Ces modifications ne concernent que la partie N-Terminale des histones H2A, H2B, H3 et H4, alors qu'elles concernent aussi bien l'extrémité C-Terminale que N-Terminale chez l'histone H1. Une méthylation des résidus lysine aura généralement un effet inhibiteur, réprimant l'expression du génome; alors que son acétylation couplé à une méthylation des arginines aura plutôt un effet activateur réduisant les charges positives de celle-ci et participant ainsi à sa désorganisation.
